--- a/estructura_tablas.xlsx
+++ b/estructura_tablas.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\workspace\EnglishDeveloper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD95A372-A644-42BE-9DC9-DCEE81AE1CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="part_of_speech" sheetId="1" r:id="rId1"/>
@@ -19,17 +13,13 @@
     <sheet name="learned_vocab" sheetId="4" r:id="rId4"/>
     <sheet name="vocabulary_source" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="195">
   <si>
     <t>id</t>
   </si>
@@ -91,9 +81,6 @@
     <t>part_of_speech_id</t>
   </si>
   <si>
-    <t>week</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -169,9 +156,6 @@
     <t>/'s-kei-le-bo_l/</t>
   </si>
   <si>
-    <t>/beld/</t>
-  </si>
-  <si>
     <t>controller</t>
   </si>
   <si>
@@ -184,9 +168,6 @@
     <t>modules</t>
   </si>
   <si>
-    <t>/'ma-yuol/</t>
-  </si>
-  <si>
     <t>escalable</t>
   </si>
   <si>
@@ -271,15 +252,9 @@
     <t>exception</t>
   </si>
   <si>
-    <t>/'i-sep-chon/</t>
-  </si>
-  <si>
     <t>handling</t>
   </si>
   <si>
-    <t>/jen-'ling/</t>
-  </si>
-  <si>
     <t>manejo</t>
   </si>
   <si>
@@ -317,12 +292,324 @@
   </si>
   <si>
     <t>carasteristicas para Dev Match,</t>
+  </si>
+  <si>
+    <t>dating</t>
+  </si>
+  <si>
+    <t>/'dei-rin/</t>
+  </si>
+  <si>
+    <t>citas</t>
+  </si>
+  <si>
+    <t>a dating app for developers.</t>
+  </si>
+  <si>
+    <t>una aplicación de citas para desarroladores</t>
+  </si>
+  <si>
+    <t>You'll learn all about Nex.js's modular architecture,</t>
+  </si>
+  <si>
+    <t>modular</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>/'ar-ki-te-chor/</t>
+  </si>
+  <si>
+    <t>arcquitectura</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>/'se-port/</t>
+  </si>
+  <si>
+    <t>tu aprenderas todo sobre aquitectura modular en Next.s</t>
+  </si>
+  <si>
+    <t>built-in</t>
+  </si>
+  <si>
+    <t>/bold/</t>
+  </si>
+  <si>
+    <t>/'bolden/</t>
+  </si>
+  <si>
+    <t>integrado</t>
+  </si>
+  <si>
+    <t>soporte</t>
+  </si>
+  <si>
+    <t>testable</t>
+  </si>
+  <si>
+    <t>/'tes-te-bo_l/</t>
+  </si>
+  <si>
+    <t>testeable</t>
+  </si>
+  <si>
+    <t>TypeScript support, and built-in tools to create clean, testable code.</t>
+  </si>
+  <si>
+    <t>soporte Typescript, y herramientas integradas para crear codigo limpio y testable</t>
+  </si>
+  <si>
+    <t>Don, the developer from Scribba, developed this course.</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>/di-'ve-loper/</t>
+  </si>
+  <si>
+    <t>desarrollador</t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t>/de-'ve-lop/</t>
+  </si>
+  <si>
+    <t>desarrolló</t>
+  </si>
+  <si>
+    <t>Don, el desarrollador de Scribba, desarrolló este curso.</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>/wel-'kam/</t>
+  </si>
+  <si>
+    <t>bienvenido</t>
+  </si>
+  <si>
+    <t>Welcome to Scribba's intro to NestJS course.</t>
+  </si>
+  <si>
+    <t>bienvenido a la introduccion de Scribba's para el curso de Nest JS</t>
+  </si>
+  <si>
+    <t>If you're looking to level up your backend skills,</t>
+  </si>
+  <si>
+    <t>looking</t>
+  </si>
+  <si>
+    <t>/'lu-king/</t>
+  </si>
+  <si>
+    <t>mirando</t>
+  </si>
+  <si>
+    <t>level up</t>
+  </si>
+  <si>
+    <t>/'le-vol/</t>
+  </si>
+  <si>
+    <t>subir de nivel</t>
+  </si>
+  <si>
+    <t>phrasal verb</t>
+  </si>
+  <si>
+    <t>frases verbal</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>/skel/</t>
+  </si>
+  <si>
+    <t>habilidades</t>
+  </si>
+  <si>
+    <t>si tu estas mirando aumentar tus habilidades en BackEnd</t>
+  </si>
+  <si>
+    <t>move beyond just building basic express apps,</t>
+  </si>
+  <si>
+    <t>beyond</t>
+  </si>
+  <si>
+    <t>/'bi-and/</t>
+  </si>
+  <si>
+    <t>más allá de</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>/yast/</t>
+  </si>
+  <si>
+    <t>solo</t>
+  </si>
+  <si>
+    <t>ir mas allá de solo construir aplicaciones basica en Express</t>
+  </si>
+  <si>
+    <t>and challenge yourselft with a more robust and scalable framework,</t>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>/cha-'ling/</t>
+  </si>
+  <si>
+    <t>desafio</t>
+  </si>
+  <si>
+    <t>y desafiarte a ti mismo con un marco mas robusto y escalable.</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <t>/rou-'bast/</t>
+  </si>
+  <si>
+    <t>robusto</t>
+  </si>
+  <si>
+    <t>/a_-'jed/</t>
+  </si>
+  <si>
+    <t>this course is for you, Let me go ahead and give you a quick overview</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>/kuek/</t>
+  </si>
+  <si>
+    <t>rapdido</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>/'ou-ver-viu/</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>este curso es para ti, dejame ir adelante y darte una vision rapida</t>
+  </si>
+  <si>
+    <t>of what Nest is about and some of the reasons</t>
+  </si>
+  <si>
+    <t>you might want to consider building with it.</t>
+  </si>
+  <si>
+    <t>period_type</t>
+  </si>
+  <si>
+    <t>/'ma-yol/</t>
+  </si>
+  <si>
+    <t>/'jen-leng/</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>/boulding/</t>
+  </si>
+  <si>
+    <t>construye</t>
+  </si>
+  <si>
+    <t>de qué trata Nest y algunas de las razones</t>
+  </si>
+  <si>
+    <t>tal vez quieras considerar construir con él.</t>
+  </si>
+  <si>
+    <t>delante</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>/a-'baich/</t>
+  </si>
+  <si>
+    <t>/i-'sep-chon/</t>
+  </si>
+  <si>
+    <t>excepcion</t>
+  </si>
+  <si>
+    <t>/'ma-yuo-ler/</t>
+  </si>
+  <si>
+    <t>tratar sobre</t>
+  </si>
+  <si>
+    <t>reasons</t>
+  </si>
+  <si>
+    <t>/'ri-son/</t>
+  </si>
+  <si>
+    <t>razon, motivo, causa</t>
+  </si>
+  <si>
+    <t>modal verb</t>
+  </si>
+  <si>
+    <t>modo verbal</t>
+  </si>
+  <si>
+    <t>modal</t>
+  </si>
+  <si>
+    <t>/'mo-ro/</t>
+  </si>
+  <si>
+    <t>modo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CbmPe0FTmcY&amp;t=654s</t>
+  </si>
+  <si>
+    <t>For example, if you were to open a modal dialogue,</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>por ejemplo, si abrimos un dialogo modal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,9 +670,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -646,24 +930,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,32 +1055,55 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C3FDE-F8D7-47E1-B962-C3CFCD14A5C3}">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,10 +1114,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -831,10 +1139,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -845,10 +1153,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -859,10 +1167,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -873,10 +1181,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -887,10 +1195,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -901,10 +1209,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -915,10 +1223,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -929,10 +1237,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -943,10 +1251,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -957,10 +1265,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -971,10 +1279,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -985,10 +1293,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -998,6 +1306,12 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -1006,6 +1320,12 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
@@ -1014,6 +1334,12 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -1022,6 +1348,12 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
@@ -1030,6 +1362,12 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
@@ -1038,6 +1376,12 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
@@ -1047,10 +1391,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1060,6 +1404,12 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
       <c r="D22">
         <v>1</v>
       </c>
@@ -1068,6 +1418,12 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
@@ -1076,6 +1432,12 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
       <c r="D24">
         <v>1</v>
       </c>
@@ -1084,6 +1446,12 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
@@ -1092,6 +1460,12 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
       <c r="D26">
         <v>1</v>
       </c>
@@ -1100,6 +1474,12 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
@@ -1108,6 +1488,12 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -1116,6 +1502,12 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
@@ -1124,6 +1516,12 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
       <c r="D30">
         <v>1</v>
       </c>
@@ -1132,6 +1530,12 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
       <c r="D31">
         <v>1</v>
       </c>
@@ -1140,6 +1544,12 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>156</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
@@ -1148,6 +1558,12 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
@@ -1156,6 +1572,12 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
       <c r="D34">
         <v>1</v>
       </c>
@@ -1164,6 +1586,12 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
       <c r="D35">
         <v>1</v>
       </c>
@@ -1172,6 +1600,12 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
       <c r="D36">
         <v>1</v>
       </c>
@@ -1180,6 +1614,12 @@
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>189</v>
+      </c>
       <c r="D37">
         <v>1</v>
       </c>
@@ -1222,6 +1662,30 @@
       </c>
       <c r="D42">
         <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1230,19 +1694,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654B2996-1003-4399-B541-A909760CB778}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1251,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1265,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1279,10 +1743,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1293,12 +1757,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1307,10 +1771,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1321,10 +1785,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1335,10 +1799,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1349,10 +1813,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1363,10 +1827,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1377,10 +1841,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1391,10 +1855,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1405,10 +1869,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1419,10 +1883,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1432,42 +1896,379 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA89E3F-627A-41F5-A199-BFF178943E7A}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,8 +2276,8 @@
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+    <col min="5" max="5" width="71.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1488,16 +2289,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,138 +2306,342 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>94</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>95</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1645,11 +2650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29B886-D683-4EA2-A72A-FC04355BE683}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,24 +2669,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1692,13 +2697,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,18 +2711,33 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{08C4D564-C807-48E2-80FD-80333F8DF4B9}"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
